--- a/biology/Botanique/Kenta/Kenta.xlsx
+++ b/biology/Botanique/Kenta/Kenta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kenta (arabe : كنتة) est une variété de dattes tunisiennes cultivées dans les oasis du gouvernorat de Kébili.
 Elle est classée parmi les meilleures variétés après la deglet nour et la ftimi ou aligue. Cueillie au mois de septembre, cette datte a une couleur jaunâtre et sa chair est tendre.
